--- a/data/Lonquimay.xlsx
+++ b/data/Lonquimay.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZE245 - Quinquén 1</t>
+          <t>REPOSICION ESCUELA CRUZACO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WILL S.A</t>
+          <t>Manuel Esteban Rodríguez Bello</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>45</v>
+        <v>2940</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/08/2015</t>
+          <t>04/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130658496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156627593&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Instalación de Torre para Telecomunicaciones Sitio ZE246 - Quinquén 2</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZE245 - Quinquén 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130661930&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130658496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Instalación de Torre para Telecomunicaciones Sitio ZE246 - Quinquén 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -530,30 +530,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>WILL S.A</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>06/08/2015</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130661930&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>6750</v>
+        <v>10</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>05/12/2014</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1200</v>
+        <v>6750</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Proyecto de Cierre Vertedero Municipal, Comuna de Lonquimay Proyecto de Cierre Vertedero Municipal, Comuna de</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lonquimay</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>760</v>
+        <v>100</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>01/06/2010</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583677&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Cierre Vertedero Municipal, Comuna de Lonquimay Proyecto de Cierre Vertedero Municipal, Comuna de</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Ilustre Municipalidad de Lonquimay</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>22</v>
+        <v>760</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>01/06/2010</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4583677&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/09/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Transportes Máximo Enrique Sciarresi González EIRL</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>250</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>20/09/2007</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2392309&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,15 +1159,15 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Global Index Chile Servicios Integrales Limitada</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>13/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Global Index Chile Servicios Integrales Limitada</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/06/2007</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2199692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>TRANSPORTES INOSTROZA LTDA</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTES DE ACEITES USADOS (e-seia)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>TRANSPORTES INOSTROZA LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>07/12/2006</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1843978&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de las aguas servidas de Lonquimay, terreno El Naranjo (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1254</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16/05/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1452247&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Sistema de tratamiento de las aguas servidas de Lonquimay, terreno El Naranjo (e-seia)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4000</v>
+        <v>1254</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>16/05/2006</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1452247&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1551,17 +1551,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Renzo Luis Pereira Sandoval</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>Transporte de Sustancias y Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Renzo Luis Pereira Sandoval</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=990046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de las Aguas Servidas de Lonquimay (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Aguas Araucanía S.A</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1070</v>
+        <v>200</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>31/05/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=859671&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Aguas Servidas de Lonquimay (e-seia)</t>
+          <t>Sistema de Tratamiento de las Aguas Servidas de Lonquimay (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1835,21 +1835,21 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1105</v>
+        <v>1070</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/04/2005</t>
+          <t>31/05/2005</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=859671&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
+          <t>Sistema de Tratamiento de Aguas Servidas de Lonquimay (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
+          <t>Aguas Araucanía S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1105</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>01/02/2005</t>
+          <t>18/04/2005</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=657886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Complejo Fronterizo Interado Paso Pino Hachado</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gobierno Regional de La Araucanía</t>
+          <t>Secretaria Regional Ministerial de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>39510</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/11/2004</t>
+          <t>01/02/2005</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=583819&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,30 +1960,30 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Central Hidroeléctrica Palmucho (e-seia)</t>
+          <t>Complejo Fronterizo Interado Paso Pino Hachado</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Gobierno Regional de La Araucanía</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>33000</v>
+        <v>39510</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/11/2004</t>
+          <t>26/11/2004</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=496284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AUMENTO DE POTENCIA DE LA CENTRAL HIDROELÉCTRICA RALCO (e-seia)</t>
+          <t>Central Hidroeléctrica Palmucho (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2027,11 +2027,11 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>23/09/2004</t>
+          <t>02/11/2004</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458960&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=496284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mejoramiento Cuesta Las Raíces: Reserva Nacional Malalcahuello, Comunas de Curacautín y Lonquimay - Región de La Araucanía (e-seia)</t>
+          <t>AUMENTO DE POTENCIA DE LA CENTRAL HIDROELÉCTRICA RALCO (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/03/2004</t>
+          <t>23/09/2004</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=282206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=458960&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Extracción de Áridos Cuesta Piedras Blancas (e-seia)</t>
+          <t>Mejoramiento Cuesta Las Raíces: Reserva Nacional Malalcahuello, Comunas de Curacautín y Lonquimay - Región de La Araucanía (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Antonio Ciuffardi Chiesa</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>14/01/2004</t>
+          <t>22/03/2004</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=282206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
+          <t>Extracción de Áridos Cuesta Piedras Blancas (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ecogas S.A.</t>
+          <t>Antonio Ciuffardi Chiesa</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10000</v>
+        <v>130</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>12/10/2001</t>
+          <t>14/01/2004</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=246103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ampliación de Área de Botaderos para Construcción de Central Hidroeléctrica Ralco</t>
+          <t>Transporte de Gas Propano desde Argentina a Temuco - Chile IX - X Región</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Ecogas S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>28/09/2000</t>
+          <t>12/10/2001</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3265&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4598&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,30 +2248,30 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Mejoramiento Ruta R-89 Tramo Estero El Salto - Paso Pino Hachado</t>
+          <t>Ampliación de Área de Botaderos para Construcción de Central Hidroeléctrica Ralco</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2460</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/02/2000</t>
+          <t>28/09/2000</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2666&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3265&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Industrialización de Queso de Cabra Comuna de Lonquimay</t>
+          <t>Mejoramiento Ruta R-89 Tramo Estero El Salto - Paso Pino Hachado</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sociedad Caprina Lonquimay Ltda.</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2460</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>27/01/2000</t>
+          <t>04/02/2000</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2666&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación Ubicación Sectores de Instalación de Contratistas en Zona de Caída Proyecto Central Hidroeléctrica Ralco</t>
+          <t>Industrialización de Queso de Cabra Comuna de Lonquimay</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Novena</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Enel Generación Chile S.A</t>
+          <t>Sociedad Caprina Lonquimay Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>25/05/1999</t>
+          <t>27/01/2000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Extensión de Red de Alcantarillado Público de la Localidad de Icalma</t>
+          <t>Modificación Ubicación Sectores de Instalación de Contratistas en Zona de Caída Proyecto Central Hidroeléctrica Ralco</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,20 +2402,20 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Novena</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Lonquimay</t>
+          <t>Enel Generación Chile S.A</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/08/1998</t>
+          <t>25/05/1999</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1112&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Extensión de Red de Alcantarillado Público de la Localidad de Liucura</t>
+          <t>Extensión de Red de Alcantarillado Público de la Localidad de Icalma</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03/08/1998</t>
+          <t>06/08/1998</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1266&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1112&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Extensión de Red de Alcantarillado Público de la Localidad de Troyo</t>
+          <t>Extensión de Red de Alcantarillado Público de la Localidad de Liucura</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>350</v>
+        <v>140</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1267&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1266&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,43 +2536,91 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Extensión de Red de Alcantarillado Público de la Localidad de Troyo</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Novena</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>I. Municipalidad de Lonquimay</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>350</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>03/08/1998</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1267&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Lonquimay</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>Central Hidroeléctrica Ralco</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>EIA</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Interregional</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Interregional</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Enel Generación Chile S.A</t>
         </is>
       </c>
-      <c r="F46" t="n">
+      <c r="F47" t="n">
         <v>470000</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>29/03/1996</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Aprobado</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=56&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Lonquimay</t>
         </is>

--- a/data/Lonquimay.xlsx
+++ b/data/Lonquimay.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
